--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H2">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I2">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J2">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N2">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O2">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P2">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q2">
-        <v>0.02542766164</v>
+        <v>0.01234723505866667</v>
       </c>
       <c r="R2">
-        <v>0.22884895476</v>
+        <v>0.111125115528</v>
       </c>
       <c r="S2">
-        <v>0.003465798153855889</v>
+        <v>0.0007726182166074275</v>
       </c>
       <c r="T2">
-        <v>0.004403446607516809</v>
+        <v>0.001112363532820369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H3">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I3">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J3">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O3">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P3">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q3">
-        <v>0.1826202523733333</v>
+        <v>0.06683658017244444</v>
       </c>
       <c r="R3">
-        <v>1.64358227136</v>
+        <v>0.6015292215519999</v>
       </c>
       <c r="S3">
-        <v>0.02489119693713979</v>
+        <v>0.004182244780439914</v>
       </c>
       <c r="T3">
-        <v>0.03162534338242901</v>
+        <v>0.006021313604948942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H4">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I4">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J4">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N4">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O4">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P4">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q4">
-        <v>0.03747818574666667</v>
+        <v>0.01564899158822223</v>
       </c>
       <c r="R4">
-        <v>0.33730367172</v>
+        <v>0.140840924294</v>
       </c>
       <c r="S4">
-        <v>0.005108288320398831</v>
+        <v>0.0009792229527622292</v>
       </c>
       <c r="T4">
-        <v>0.006490301476343075</v>
+        <v>0.001409819079773061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H5">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I5">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J5">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N5">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O5">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P5">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q5">
-        <v>0.44237679322</v>
+        <v>0.3382409764405001</v>
       </c>
       <c r="R5">
-        <v>2.65426075932</v>
+        <v>2.029445858643</v>
       </c>
       <c r="S5">
-        <v>0.06029609387434667</v>
+        <v>0.02116515468923407</v>
       </c>
       <c r="T5">
-        <v>0.05107253187304285</v>
+        <v>0.02031477361586168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H6">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I6">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J6">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N6">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O6">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P6">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q6">
-        <v>0.01775099794666667</v>
+        <v>0.004975336635888889</v>
       </c>
       <c r="R6">
-        <v>0.15975898152</v>
+        <v>0.044778029723</v>
       </c>
       <c r="S6">
-        <v>0.002419466515783675</v>
+        <v>0.0003113276535497636</v>
       </c>
       <c r="T6">
-        <v>0.003074036960021746</v>
+        <v>0.0004482285314057683</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H7">
         <v>1.792463</v>
       </c>
       <c r="I7">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J7">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N7">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O7">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P7">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q7">
-        <v>0.2137410554596667</v>
+        <v>0.2835867662053333</v>
       </c>
       <c r="R7">
-        <v>1.923669499137</v>
+        <v>2.552280895848</v>
       </c>
       <c r="S7">
-        <v>0.02913297203270956</v>
+        <v>0.0177452118241841</v>
       </c>
       <c r="T7">
-        <v>0.03701470229060871</v>
+        <v>0.02554835763783808</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H8">
         <v>1.792463</v>
       </c>
       <c r="I8">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J8">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O8">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P8">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q8">
-        <v>1.535078059603556</v>
+        <v>1.535078059603555</v>
       </c>
       <c r="R8">
         <v>13.815702536432</v>
       </c>
       <c r="S8">
-        <v>0.2092316147792928</v>
+        <v>0.09605626418617517</v>
       </c>
       <c r="T8">
-        <v>0.2658378253390492</v>
+        <v>0.1382953224282459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H9">
         <v>1.792463</v>
       </c>
       <c r="I9">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J9">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N9">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O9">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P9">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q9">
-        <v>0.3150359278654445</v>
+        <v>0.3594202991837778</v>
       </c>
       <c r="R9">
-        <v>2.835323350789</v>
+        <v>3.234782692654</v>
       </c>
       <c r="S9">
-        <v>0.04293949450219026</v>
+        <v>0.0224904336273214</v>
       </c>
       <c r="T9">
-        <v>0.05455648684670013</v>
+        <v>0.03238020754183283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H10">
         <v>1.792463</v>
       </c>
       <c r="I10">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J10">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N10">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O10">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P10">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q10">
-        <v>3.718552025443167</v>
+        <v>7.7685946895105</v>
       </c>
       <c r="R10">
-        <v>22.311312152659</v>
+        <v>46.611568137063</v>
       </c>
       <c r="S10">
-        <v>0.5068397923198886</v>
+        <v>0.48611351011274</v>
       </c>
       <c r="T10">
-        <v>0.4293079333087132</v>
+        <v>0.4665822695156294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H11">
         <v>1.792463</v>
       </c>
       <c r="I11">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J11">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N11">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O11">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P11">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q11">
-        <v>0.1492121882971111</v>
+        <v>0.1142717070381111</v>
       </c>
       <c r="R11">
-        <v>1.342909694674</v>
+        <v>1.028445363343</v>
       </c>
       <c r="S11">
-        <v>0.02033766746051938</v>
+        <v>0.007150459360413745</v>
       </c>
       <c r="T11">
-        <v>0.02583988703560054</v>
+        <v>0.01029474851157923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H12">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I12">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J12">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N12">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O12">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P12">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q12">
-        <v>0.003977812093500001</v>
+        <v>0.01304320378133333</v>
       </c>
       <c r="R12">
-        <v>0.023866872561</v>
+        <v>0.117388834032</v>
       </c>
       <c r="S12">
-        <v>0.0005421770198621349</v>
+        <v>0.0008161678947958119</v>
       </c>
       <c r="T12">
-        <v>0.0004592395849960903</v>
+        <v>0.001175063418535639</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H13">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I13">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J13">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O13">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P13">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q13">
-        <v>0.028568456616</v>
+        <v>0.07060391505422221</v>
       </c>
       <c r="R13">
-        <v>0.171410739696</v>
+        <v>0.635435235488</v>
       </c>
       <c r="S13">
-        <v>0.003893889481464912</v>
+        <v>0.004417982704265948</v>
       </c>
       <c r="T13">
-        <v>0.003298236782413425</v>
+        <v>0.006360713148126041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H14">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I14">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J14">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N14">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O14">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P14">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q14">
-        <v>0.005862952819500001</v>
+        <v>0.01653106831511111</v>
       </c>
       <c r="R14">
-        <v>0.035177716917</v>
+        <v>0.148779614836</v>
       </c>
       <c r="S14">
-        <v>0.000799122284449561</v>
+        <v>0.001034418188327252</v>
       </c>
       <c r="T14">
-        <v>0.0006768796404632979</v>
+        <v>0.001489285452566542</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H15">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I15">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J15">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N15">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O15">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P15">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q15">
-        <v>0.06920383725675</v>
+        <v>0.357306389807</v>
       </c>
       <c r="R15">
-        <v>0.276815349027</v>
+        <v>2.143838338842</v>
       </c>
       <c r="S15">
-        <v>0.009432504443384886</v>
+        <v>0.02235815746306312</v>
       </c>
       <c r="T15">
-        <v>0.005326402346298067</v>
+        <v>0.02145984350215738</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02748066666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.082442</v>
+      </c>
+      <c r="I16">
+        <v>0.02895560231126412</v>
+      </c>
+      <c r="J16">
+        <v>0.03095839906451124</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.0111195</v>
-      </c>
-      <c r="H16">
-        <v>0.022239</v>
-      </c>
-      <c r="I16">
-        <v>0.01504618588422982</v>
-      </c>
-      <c r="J16">
-        <v>0.01008135255766893</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N16">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O16">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P16">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q16">
-        <v>0.002776902387000001</v>
+        <v>0.005255778262444444</v>
       </c>
       <c r="R16">
-        <v>0.016661414322</v>
+        <v>0.047302004362</v>
       </c>
       <c r="S16">
-        <v>0.0003784926550683254</v>
+        <v>0.0003288760608119833</v>
       </c>
       <c r="T16">
-        <v>0.0003205942034980473</v>
+        <v>0.0004734935431256403</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H17">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I17">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J17">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N17">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O17">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P17">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q17">
-        <v>0.02122692226533333</v>
+        <v>0.08742412929200001</v>
       </c>
       <c r="R17">
-        <v>0.191042300388</v>
+        <v>0.5245447757520001</v>
       </c>
       <c r="S17">
-        <v>0.002893236076553153</v>
+        <v>0.005470493964122863</v>
       </c>
       <c r="T17">
-        <v>0.003675981699011827</v>
+        <v>0.005250698522162109</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H18">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I18">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J18">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O18">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P18">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q18">
-        <v>0.1524507426631111</v>
+        <v>0.4732338696613333</v>
       </c>
       <c r="R18">
-        <v>1.372056683968</v>
+        <v>2.839403217968</v>
       </c>
       <c r="S18">
-        <v>0.0207790834232514</v>
+        <v>0.02961222546414</v>
       </c>
       <c r="T18">
-        <v>0.02640072512752276</v>
+        <v>0.02842245499258519</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H19">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I19">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J19">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N19">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O19">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P19">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q19">
-        <v>0.03128665729288889</v>
+        <v>0.1108020911076667</v>
       </c>
       <c r="R19">
-        <v>0.281579915636</v>
+        <v>0.6648125466460001</v>
       </c>
       <c r="S19">
-        <v>0.004264381075271228</v>
+        <v>0.006933350958430981</v>
       </c>
       <c r="T19">
-        <v>0.005418080784124851</v>
+        <v>0.006654780330591578</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H20">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I20">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J20">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N20">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O20">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P20">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q20">
-        <v>0.3692945869193333</v>
+        <v>2.39490239844675</v>
       </c>
       <c r="R20">
-        <v>2.215767521516</v>
+        <v>9.579609593787001</v>
       </c>
       <c r="S20">
-        <v>0.0503349665295451</v>
+        <v>0.1498590746223787</v>
       </c>
       <c r="T20">
-        <v>0.04263516949814342</v>
+        <v>0.09589198913453399</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1841935</v>
+      </c>
+      <c r="H21">
+        <v>0.368387</v>
+      </c>
+      <c r="I21">
+        <v>0.1940794886460722</v>
+      </c>
+      <c r="J21">
+        <v>0.1383356997183245</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1912536666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.573761</v>
+      </c>
+      <c r="O21">
+        <v>0.01135794231722979</v>
+      </c>
+      <c r="P21">
+        <v>0.01529450996929694</v>
+      </c>
+      <c r="Q21">
+        <v>0.03522768225116667</v>
+      </c>
+      <c r="R21">
+        <v>0.211366093507</v>
+      </c>
+      <c r="S21">
+        <v>0.00220434363699954</v>
+      </c>
+      <c r="T21">
+        <v>0.002115776738451581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.113886</v>
+      </c>
+      <c r="H22">
+        <v>0.341658</v>
+      </c>
+      <c r="I22">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J22">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.474632</v>
+      </c>
+      <c r="N22">
+        <v>1.423896</v>
+      </c>
+      <c r="O22">
+        <v>0.02818687333878431</v>
+      </c>
+      <c r="P22">
+        <v>0.03795620749274008</v>
+      </c>
+      <c r="Q22">
+        <v>0.054053939952</v>
+      </c>
+      <c r="R22">
+        <v>0.486485459568</v>
+      </c>
+      <c r="S22">
+        <v>0.003382381439074106</v>
+      </c>
+      <c r="T22">
+        <v>0.004869724381383875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.113886</v>
+      </c>
+      <c r="H23">
+        <v>0.341658</v>
+      </c>
+      <c r="I23">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J23">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.569221333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.707663999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1525778209264635</v>
+      </c>
+      <c r="P23">
+        <v>0.2054600153861819</v>
+      </c>
+      <c r="Q23">
+        <v>0.292598340768</v>
+      </c>
+      <c r="R23">
+        <v>2.633385066912</v>
+      </c>
+      <c r="S23">
+        <v>0.01830910379144241</v>
+      </c>
+      <c r="T23">
+        <v>0.02636021121227587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.113886</v>
+      </c>
+      <c r="H24">
+        <v>0.341658</v>
+      </c>
+      <c r="I24">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J24">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6015526666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.804658</v>
+      </c>
+      <c r="O24">
+        <v>0.03572428496591312</v>
+      </c>
+      <c r="P24">
+        <v>0.04810602284256246</v>
+      </c>
+      <c r="Q24">
+        <v>0.068508426996</v>
+      </c>
+      <c r="R24">
+        <v>0.616575842964</v>
+      </c>
+      <c r="S24">
+        <v>0.004286859239071252</v>
+      </c>
+      <c r="T24">
+        <v>0.006171930437798449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.05933733333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.178012</v>
-      </c>
-      <c r="I21">
-        <v>0.08029142921964472</v>
-      </c>
-      <c r="J21">
-        <v>0.08069615232230591</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.2497326666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.749198</v>
-      </c>
-      <c r="O21">
-        <v>0.02515538874639522</v>
-      </c>
-      <c r="P21">
-        <v>0.03180071341262338</v>
-      </c>
-      <c r="Q21">
-        <v>0.01481847048622222</v>
-      </c>
-      <c r="R21">
-        <v>0.133366234376</v>
-      </c>
-      <c r="S21">
-        <v>0.002019762115023839</v>
-      </c>
-      <c r="T21">
-        <v>0.002566195213503053</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.113886</v>
+      </c>
+      <c r="H25">
+        <v>0.341658</v>
+      </c>
+      <c r="I25">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J25">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.0021005</v>
+      </c>
+      <c r="N25">
+        <v>26.004201</v>
+      </c>
+      <c r="O25">
+        <v>0.7721530784516092</v>
+      </c>
+      <c r="P25">
+        <v>0.6931832443092185</v>
+      </c>
+      <c r="Q25">
+        <v>1.480757217543</v>
+      </c>
+      <c r="R25">
+        <v>8.884543305258001</v>
+      </c>
+      <c r="S25">
+        <v>0.09265718156419324</v>
+      </c>
+      <c r="T25">
+        <v>0.08893436854103597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.113886</v>
+      </c>
+      <c r="H26">
+        <v>0.341658</v>
+      </c>
+      <c r="I26">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J26">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1912536666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.573761</v>
+      </c>
+      <c r="O26">
+        <v>0.01135794231722979</v>
+      </c>
+      <c r="P26">
+        <v>0.01529450996929694</v>
+      </c>
+      <c r="Q26">
+        <v>0.021781115082</v>
+      </c>
+      <c r="R26">
+        <v>0.196030035738</v>
+      </c>
+      <c r="S26">
+        <v>0.001362935605454751</v>
+      </c>
+      <c r="T26">
+        <v>0.001962262644734723</v>
       </c>
     </row>
   </sheetData>
